--- a/output7/【河洛白話注音-雅俗通】《尚有力量的每日祈禱文》.xlsx
+++ b/output7/【河洛白話注音-雅俗通】《尚有力量的每日祈禱文》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{002524FC-6EB9-40DF-8062-89B4AD1EA001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DB340F6-9400-4E81-B8B3-7A2423BE60D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -6761,7 +6761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B1:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>

--- a/output7/【河洛白話注音-雅俗通】《尚有力量的每日祈禱文》.xlsx
+++ b/output7/【河洛白話注音-雅俗通】《尚有力量的每日祈禱文》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DB340F6-9400-4E81-B8B3-7A2423BE60D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B7F6E3-E979-4E68-994B-3379BE6ED713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -6761,7 +6761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B1:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>

--- a/output7/【河洛白話注音-雅俗通】《尚有力量的每日祈禱文》.xlsx
+++ b/output7/【河洛白話注音-雅俗通】《尚有力量的每日祈禱文》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B7F6E3-E979-4E68-994B-3379BE6ED713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B78A9C4-C535-4372-AECD-25BBC90EF0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -6727,7 +6727,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="7">
+  <dataValidations disablePrompts="1" count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{DE2F131F-8109-4114-9E19-8669EDE792F8}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
@@ -6762,7 +6762,7 @@
   <dimension ref="B1:V242"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>

--- a/output7/【河洛白話注音-雅俗通】《尚有力量的每日祈禱文》.xlsx
+++ b/output7/【河洛白話注音-雅俗通】《尚有力量的每日祈禱文》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B78A9C4-C535-4372-AECD-25BBC90EF0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{483A5A3A-DDB6-4FB9-AA8F-78851E999CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
